--- a/public/temp/sentiments.xlsx
+++ b/public/temp/sentiments.xlsx
@@ -25,6 +25,15 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>662c985341695bf91a21fb47</t>
+  </si>
+  <si>
+    <t>661ffe8b6306f08fc91f46c6</t>
+  </si>
+  <si>
+    <t>could have been better for this price</t>
+  </si>
+  <si>
     <t>662c97dca16224d8011cab45</t>
   </si>
   <si>
@@ -34,25 +43,16 @@
     <t>very disatisying</t>
   </si>
   <si>
-    <t>662c985341695bf91a21fb47</t>
-  </si>
-  <si>
-    <t>661ffe8b6306f08fc91f46c6</t>
-  </si>
-  <si>
-    <t>could have been better for this price</t>
-  </si>
-  <si>
     <t>662c9aad108e64a0b90ba792</t>
   </si>
   <si>
+    <t>Worst product ever</t>
+  </si>
+  <si>
     <t>661e8e740d250cabe1608d15</t>
   </si>
   <si>
     <t xml:space="preserve">Bad product </t>
-  </si>
-  <si>
-    <t>Worst product ever</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -473,7 +473,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -484,13 +484,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -498,10 +498,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>

--- a/public/temp/sentiments.xlsx
+++ b/public/temp/sentiments.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>User</t>
   </si>
@@ -25,6 +25,15 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>662c97dca16224d8011cab45</t>
+  </si>
+  <si>
+    <t>661e8fd10d250cabe1608d29</t>
+  </si>
+  <si>
+    <t>very disatisying</t>
+  </si>
+  <si>
     <t>662c985341695bf91a21fb47</t>
   </si>
   <si>
@@ -34,25 +43,31 @@
     <t>could have been better for this price</t>
   </si>
   <si>
-    <t>662c97dca16224d8011cab45</t>
-  </si>
-  <si>
-    <t>661e8fd10d250cabe1608d29</t>
-  </si>
-  <si>
-    <t>very disatisying</t>
-  </si>
-  <si>
     <t>662c9aad108e64a0b90ba792</t>
   </si>
   <si>
+    <t>661e8e740d250cabe1608d15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad product </t>
+  </si>
+  <si>
     <t>Worst product ever</t>
   </si>
   <si>
-    <t>661e8e740d250cabe1608d15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bad product </t>
+    <t>662e7dc5202ce99cb6d78bfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very harmful products </t>
+  </si>
+  <si>
+    <t>662c9aa3108e64a0b90ba78a</t>
+  </si>
+  <si>
+    <t>661e8f520d250cabe1608d27</t>
+  </si>
+  <si>
+    <t>i buyed this product seeing my friend product,it was my worst decison of my life</t>
   </si>
 </sst>
 </file>
@@ -429,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -459,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -473,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -484,13 +499,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -498,13 +513,41 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/public/temp/sentiments.xlsx
+++ b/public/temp/sentiments.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>User</t>
   </si>
@@ -25,22 +25,34 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>662c97dca16224d8011cab45</t>
+    <t>662c985341695bf91a21fb47</t>
+  </si>
+  <si>
+    <t>661ffe8b6306f08fc91f46c6</t>
+  </si>
+  <si>
+    <t>could have been better for this price</t>
   </si>
   <si>
     <t>661e8fd10d250cabe1608d29</t>
   </si>
   <si>
-    <t>very disatisying</t>
-  </si>
-  <si>
-    <t>662c985341695bf91a21fb47</t>
-  </si>
-  <si>
-    <t>661ffe8b6306f08fc91f46c6</t>
-  </si>
-  <si>
-    <t>could have been better for this price</t>
+    <t xml:space="preserve">my money is wasted </t>
+  </si>
+  <si>
+    <t>661e9311233d87de1469a2e4</t>
+  </si>
+  <si>
+    <t>this product was not worth for the price hardly seen any effect</t>
+  </si>
+  <si>
+    <t>662c9aa3108e64a0b90ba78a</t>
+  </si>
+  <si>
+    <t>661e8f520d250cabe1608d27</t>
+  </si>
+  <si>
+    <t>i buyed this product seeing my friend product,it was my worst decison of my life</t>
   </si>
   <si>
     <t>662c9aad108e64a0b90ba792</t>
@@ -59,15 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">very harmful products </t>
-  </si>
-  <si>
-    <t>662c9aa3108e64a0b90ba78a</t>
-  </si>
-  <si>
-    <t>661e8f520d250cabe1608d27</t>
-  </si>
-  <si>
-    <t>i buyed this product seeing my friend product,it was my worst decison of my life</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -474,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -482,72 +485,114 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/temp/sentiments.xlsx
+++ b/public/temp/sentiments.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="20">
   <si>
     <t>User</t>
   </si>
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D46"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -595,6 +595,510 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
